--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -40,124 +40,136 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>however</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>however</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
     <t>paid</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>interest</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>light</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>item</t>
@@ -169,61 +181,55 @@
     <t>way</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>never</t>
   </si>
   <si>
-    <t>product</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>quality</t>
@@ -232,15 +238,6 @@
     <t>buy</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -253,58 +250,61 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>elf</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>helicopter</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>expansion</t>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>ages</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>ages</t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>book</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>game</t>
+    <t>fun</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>fun</t>
+    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -668,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
         <v>98</v>
@@ -737,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9527027027027027</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K3">
-        <v>0.7076923076923077</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -787,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9436619718309859</v>
+        <v>0.9797297297297297</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K4">
-        <v>0.5974025974025974</v>
+        <v>0.65625</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -837,38 +837,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9318181818181818</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5">
+        <v>0.5324675324675324</v>
+      </c>
+      <c r="L5">
         <v>41</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>41</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5">
-        <v>0.53125</v>
-      </c>
-      <c r="L5">
-        <v>34</v>
-      </c>
-      <c r="M5">
-        <v>34</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -887,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9223300970873787</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6">
-        <v>0.5268817204301075</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -937,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8947368421052632</v>
+        <v>0.9086021505376344</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -955,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7">
-        <v>0.5094339622641509</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -987,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8857142857142857</v>
+        <v>0.9077669902912622</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>0.453125</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1037,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8763440860215054</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C9">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1055,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1087,13 +1087,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10">
-        <v>0.4680851063829787</v>
+        <v>0.4356846473029046</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1137,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8225806451612904</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>0.4117647058823529</v>
+        <v>0.4128440366972477</v>
       </c>
       <c r="L11">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="M11">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>410</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8043478260869565</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C12">
         <v>37</v>
@@ -1205,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12">
-        <v>0.4045643153526971</v>
+        <v>0.3951149425287356</v>
       </c>
       <c r="L12">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="M12">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>287</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1237,13 +1237,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7890625</v>
+        <v>0.78125</v>
       </c>
       <c r="C13">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1255,31 +1255,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13">
-        <v>0.3792048929663608</v>
+        <v>0.2974527526705013</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>362</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>203</v>
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1290,10 +1290,10 @@
         <v>0.765625</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1305,31 +1305,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14">
-        <v>0.2933442892358258</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L14">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>860</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,13 +1337,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7592592592592593</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1355,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>0.2710843373493976</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7407407407407407</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1405,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16">
-        <v>0.2311977715877437</v>
+        <v>0.233983286908078</v>
       </c>
       <c r="L16">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1437,13 +1437,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17">
-        <v>0.1982758620689655</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>93</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1487,13 +1487,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6825396825396826</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K18">
-        <v>0.1904761904761905</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1537,13 +1537,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6557377049180327</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1555,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K19">
-        <v>0.1675324675324675</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="L19">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1282</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1608,28 +1608,28 @@
         <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20">
-        <v>0.1373239436619718</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="N20">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>245</v>
+        <v>973</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1637,13 +1637,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6363636363636364</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1658,28 +1658,28 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21">
-        <v>0.1367221735319895</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L21">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>985</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1687,13 +1687,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5952380952380952</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1708,28 +1708,28 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K22">
-        <v>0.0535475234270415</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N22">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O22">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>707</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1737,13 +1737,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5545023696682464</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C23">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1755,7 +1755,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23">
+        <v>0.06182795698924731</v>
+      </c>
+      <c r="L23">
+        <v>46</v>
+      </c>
+      <c r="M23">
+        <v>54</v>
+      </c>
+      <c r="N23">
+        <v>0.85</v>
+      </c>
+      <c r="O23">
+        <v>0.15</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5357142857142857</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1781,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,13 +1813,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5344827586206896</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1807,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1815,13 +1839,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5185185185185185</v>
+        <v>0.6</v>
       </c>
       <c r="C26">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1833,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1841,13 +1865,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5111111111111111</v>
+        <v>0.5734597156398105</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1859,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1867,13 +1891,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4898550724637681</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="C28">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1885,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>176</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1893,25 +1917,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4742268041237113</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>46</v>
-      </c>
-      <c r="D29">
-        <v>46</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1919,13 +1943,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.462962962962963</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1937,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1945,13 +1969,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4583333333333333</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1963,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1971,13 +1995,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4356435643564356</v>
+        <v>0.4579710144927536</v>
       </c>
       <c r="C32">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="D32">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1989,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>114</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1997,13 +2021,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4145569620253164</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="C33">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D33">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2015,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2023,13 +2047,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4096385542168675</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2041,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2049,13 +2073,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4033613445378151</v>
+        <v>0.4175824175824176</v>
       </c>
       <c r="C35">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2067,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2075,13 +2099,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3928571428571428</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2093,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2101,13 +2125,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3918918918918919</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2119,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>45</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2127,13 +2151,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.391304347826087</v>
+        <v>0.3949579831932773</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2145,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2153,13 +2177,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3902439024390244</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2171,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2179,13 +2203,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3736263736263736</v>
+        <v>0.359375</v>
       </c>
       <c r="C40">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2197,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2205,13 +2229,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.359375</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2223,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2231,13 +2255,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3258426966292135</v>
+        <v>0.305</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2249,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>60</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2257,13 +2281,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2934782608695652</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C43">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2275,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>195</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2283,13 +2307,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2753164556962026</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C44">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2301,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>229</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2309,13 +2333,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2514619883040936</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C45">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2327,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2335,13 +2359,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2353,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>150</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2361,13 +2385,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2421875</v>
+        <v>0.2644927536231884</v>
       </c>
       <c r="C47">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D47">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2379,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>97</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2387,13 +2411,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2349726775956284</v>
+        <v>0.2373417721518987</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D48">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2405,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>140</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2413,25 +2437,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2051282051282051</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>93</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2439,13 +2463,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1899109792284867</v>
+        <v>0.2158590308370044</v>
       </c>
       <c r="C50">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D50">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2457,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>546</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2465,13 +2489,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1824324324324324</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2483,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>121</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2491,13 +2515,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1806167400881057</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C52">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2509,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>372</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2517,13 +2541,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1657142857142857</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C53">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2535,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2543,13 +2567,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1656050955414013</v>
+        <v>0.1839762611275964</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2561,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>131</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2569,25 +2593,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1654676258992806</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="C55">
         <v>23</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2595,25 +2619,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1641025641025641</v>
+        <v>0.171875</v>
       </c>
       <c r="C56">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>33</v>
       </c>
       <c r="E56">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2621,25 +2645,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1514195583596215</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D57">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2647,13 +2671,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1495327102803738</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="C58">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2665,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2673,13 +2697,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.140625</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2691,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2699,25 +2723,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1329479768786127</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C60">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D60">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E60">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>300</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2725,25 +2749,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.132183908045977</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E61">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>151</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2751,25 +2775,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1100917431192661</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C62">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E62">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>582</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2777,25 +2801,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1071428571428571</v>
+        <v>0.1242774566473988</v>
       </c>
       <c r="C63">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D63">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E63">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F63">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2803,25 +2827,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1043165467625899</v>
+        <v>0.1085626911314985</v>
       </c>
       <c r="C64">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D64">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E64">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="F64">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>249</v>
+        <v>583</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2829,25 +2853,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.08970099667774087</v>
+        <v>0.09976798143851508</v>
       </c>
       <c r="C65">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>274</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2855,25 +2879,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.08781869688385269</v>
+        <v>0.07925407925407925</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D66">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E66">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="F66">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>322</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2881,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07476635514018691</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E67">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="F67">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>396</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2907,25 +2931,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06976744186046512</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D68">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E68">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="F68">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>400</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2933,25 +2957,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06413301662707839</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="C69">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E69">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="F69">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>394</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2959,51 +2983,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.05289256198347107</v>
+        <v>0.03417721518987342</v>
       </c>
       <c r="C70">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E70">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="F70">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.03792667509481669</v>
-      </c>
-      <c r="C71">
-        <v>30</v>
-      </c>
-      <c r="D71">
-        <v>33</v>
-      </c>
-      <c r="E71">
-        <v>0.09</v>
-      </c>
-      <c r="F71">
-        <v>0.91</v>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
